--- a/2-EvaluacionesArticuladas/Gestión Escolar/Matriz/11_16 - PostReunion MtraMarina/Matriz de Especificaciones (1).xlsx
+++ b/2-EvaluacionesArticuladas/Gestión Escolar/Matriz/11_16 - PostReunion MtraMarina/Matriz de Especificaciones (1).xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="196">
   <si>
     <t>Id</t>
   </si>
@@ -214,9 +214,6 @@
   </si>
   <si>
     <t>5.1 Frecuencia con la que se da el acompañamiento al docente por parte del director o de un par</t>
-  </si>
-  <si>
-    <t>A partir de los tipos de acompañamiento al docente (por el director o un par), identificar la frecuencia con la que ocurre el acompañamiento en su centro escolar</t>
   </si>
   <si>
     <t>Una variable por cada uno de los actores que brinda acompañamiento.</t>
@@ -476,53 +473,7 @@
     <t>Se retomó Reactivo 15 del cuestionario ECEA - Director, como referencia</t>
   </si>
   <si>
-    <t>¿En esta escuela se implementan las siguientes estrategias para atender a los estudiantes cuando algún docente se ausenta un día o más? Marque Sí o No en cada renglón.
-                                                                               Sí                              No 
-a. Algún docente o directivo 
-imparte la clase en su lugar
-b. Algún docente o directivo 
-cuida al grupo, pero sin
-impartir clase
-c. Se suspenden esas clases 
-porque no hay docente
-que las cubra
-d. Se distribuye a los estudiantes 
-en otros grupos
-e. Alguna figura de apoyo 
-educativo (orientador,
-trabajador social, prefecto) 
-cuida al grupo
-f. Otras figuras cuidan al grupo 
-(por ejemplo, padre
-de familia, administrativo, 
-personal de limpieza o un
-estudiante)</t>
-  </si>
-  <si>
     <t>A partir de un listado de estrategias para atender a los grupos cuando faltan los docentes, identifica aquellas que se implementan en su centro escolar</t>
-  </si>
-  <si>
-    <t>"Cuando algún docente se ausenta un día o más, ¿cuál o cuáles de las siguientes medidas se implementan en tu escuela?" Marque Sí o No en cada renglón.
-                                                                               Sí                              No 
-a. Algún docente o directivo 
-imparte la clase en su lugar
-b. Algún docente o directivo 
-cuida al grupo, pero sin
-impartir clase
-c. Se suspenden esas clases 
-porque no hay docente
-que las cubra
-d. Se distribuye a los estudiantes 
-en otros grupos
-e. Alguna figura de apoyo 
-educativo (orientador,
-trabajador social, prefecto) 
-cuida al grupo
-f. Otras figuras cuidan al grupo 
-(por ejemplo, padre
-de familia, administrativo, 
-personal de limpieza o un
-estudiante)"</t>
   </si>
   <si>
     <t>Alumno</t>
@@ -541,12 +492,6 @@
   </si>
   <si>
     <t>16.1 Existencia de acciones de promoción para que participe la comunidad escolar (Docentes, directores, padres de familia y personal de apoyo o administrativo)</t>
-  </si>
-  <si>
-    <t>A partir de un listado de los diversos actores de la comunidad escolar (docentes, padres de familia y personal de apoyo o administrativo), identifica las acciones que se lleven a cabo en su centro escolar para promover su participación</t>
-  </si>
-  <si>
-    <t>Se retomó Reactivo 29 del cuestionario ECEA - Docentes,  como referencia</t>
   </si>
   <si>
     <t>Estrategias para promover la participación de toda la comunidad escolar</t>
@@ -592,16 +537,6 @@
     <t>A partir de un listado de insumos para la planificación del ciclo escolar, identifica aquellos que son utilizados en su planificación</t>
   </si>
   <si>
-    <t>Esperar al piloteo para identificar los retos</t>
-  </si>
-  <si>
-    <t>De la lista que se le presenta a continuación, identifique aquellos elementos que hayan fungido como insumos en la elaboración de la planificación del ciclo escolar en el último año.
-a. Diagnóstico escolar
-b. Resultados obtenidos en pruebas nacionales (PLANEA, etc)
-c. Modelo educativo vigente
-d. Programas de estudio extranjeros</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Director</t>
   </si>
   <si>
@@ -612,40 +547,6 @@
   </si>
   <si>
     <t>Se recuperan las opciones de respuesta del Reactivo 23 del cuestionario ECEA - Director, (que habla sobre los retos a los que el Director se enfrenta para el ejercicio de sus funciones directivas).</t>
-  </si>
-  <si>
-    <t>De la lista que se le presenta a continuación, identifique si en el último ciclo escolar su centro escolar se enfrentó a alguno de estos retos en la elaboración de la planificación del ciclo escolar. Marque Sí o No en cada renglón.
-                                                                              Sí                          No
-a. Falta de personal 
-docente
-b. El perfil del personal 
-docente que labora en 
-la escuela
-c. Insuficiencia de materiales 
-y condiciones de trabajo
-c. El clima escolar que 
-prevalece en la escuela
-d. La cantidad de recursos 
-escolares (por ejemplo, 
-espacios escolares, 
-equipo audiovisual)
-f. La disposición del personal 
-docente
-g. El proceso de contratación 
-o sustitución del personal 
-docente que labora en la escuela
-h. La cantidad de personal 
-docente en la escuela
-i. El cambio frecuente del 
-personal docente
-j. La cantidad de recursos 
-económicos con los que cuenta 
-la escuela
-k. El nivel de participación de 
-los padres de familia
-l. La relación que existe con las 
-autoridades locales (por ejemplo, 
-comunitarias, municipales)</t>
   </si>
   <si>
     <t>Comunitaria</t>
@@ -673,9 +574,6 @@
   </si>
   <si>
     <t>20.1 Identificación de los aspectos sobre los cuales se establecen vínculos entre la escuela y los distintos actores e instituciones</t>
-  </si>
-  <si>
-    <t>A partir de un listado de distintos aspectos potenciales, identificar aquellos en los que se mantiene un vínculo de trabajo con otros actores e instituciones</t>
   </si>
   <si>
     <t>Se retomó Reactivo 34 del cuestionario ECEA - Cédula Director, como referencia</t>
@@ -843,38 +741,6 @@
     </r>
   </si>
   <si>
-    <t>De las siguientes acciones, indique el nivel de utilidad que han tenido para promover el aprendizaje y la permanencia de los estudiantes en su centro escolar.
-                                                                             Nada útil      -         -          -         Muy útil
-a. Cursos introductorios o 
-propedéuticos para los 
-estudiantes de nuevo ingreso
-b. Cursos de regularización 
-durante el ciclo escolar
-c. Tutoría académica grupal
-d. Asesorías académicas 
-individuales extra clase
-e. Adecuación de metas u objetivos
-institucionales de acuerdo 
-con las necesidades específicas de
- aprendizaje de los estudiantes
-f. Capacitar a los docentes para apoyar 
-a los estudiantes con bajo aprovechamiento 
-(por ejemplo, curso sobre estrategias 
-de nivelación académica)
-h. Organizar actividades
-extraescolares (por ejemplo,
-actividades deportivas,
-recreativas y culturales)
-l. Definir estrategias de
-atención a problemas
-personales de los estudiantes
-(por ejemplo, adicciones,
-problemas emocionales)
-n. Analizar el reglamento o
-acuerdo de convivencia
-escolar</t>
-  </si>
-  <si>
     <t xml:space="preserve">¿En este ciclo escolar se han abordado los siguientes temas en las sesiones de Tutoría Grupal? Marca Sí o No en cada renglón.
                                                                                               Sí                      No
 a. Nivelación académica
@@ -981,9 +847,6 @@
 d.  Una vez al bimestre
 e. Una vez al semestre
 f.  Una vez en el ciclo escolar</t>
-  </si>
-  <si>
-    <t>A partir de los tipos de acompañamiento al docente, identifica la utilidad del acompañamiento en su centro escolar</t>
   </si>
   <si>
     <t xml:space="preserve">En los últimos 12 meses, ¿ha recibido asesoría o acompañamiento en los siguientes aspectos? Marque Sí o No por cada enunciado.
@@ -1147,33 +1010,6 @@
 e. Más de 15 días</t>
   </si>
   <si>
-    <t>En este ciclo escolar, ¿esta escuela ha trabajado conjuntamente con algún actor e/o institución ajeno a su centro escolar en los siguientes ámbitos? Marque Sí o No en cada renglón.
-                                                                               Sí                                    No
-a. Seguridad
-b. Salud, alimentación e higiene
-c. Protección civil y emergencia
-d. Infraestructura
-e. Mobiliario escolar
-f. Actividades artísticas y culturales
-g. Orientación vocacional
-h. Apoyo para la prevención y atención 
-de adicciones
-i. Apoyo a la mejora educativa</t>
-  </si>
-  <si>
-    <t>De la lista que se te presenta a continuación, indica si los siguientes  actores e instituciones mantienen un vínculo activo de trabajo con su centro escolar. Marque Sí o No en cada renglón.
-                                                                        Sí                       No
-a. Servicios de transporte
-b. Centro de maestros
-c. USAER / UDEI
-d. Autoridades estatales y municipales
-e. Organizaciones de Sociedad Civil
-f. Otras instituciones educativas 
-g. Instituciones o empresas privadas
-h. Centros de Salud
-i.  Centros de desarroll cultural</t>
-  </si>
-  <si>
     <t>A partir de un listado acciones para evaluar el trabajo docente con fines de mejora, identifica aquellas que se llevan a cabo en su centro escolar</t>
   </si>
   <si>
@@ -1285,6 +1121,164 @@
 adicciones,_x000D_ problemas emocionales)_x000D_
 n. Analizar el reglamento o_x000D_ acuerdo de convivencia_x000D_
 escolar</t>
+  </si>
+  <si>
+    <t>Para cada una de las siguientes acciones, indique el nivel de utilidad que han tenido para promover el aprendizaje y la permanencia de los estudiantes en su centro escolar.
+                                                                                                                  Nada útil      -         -          -         Muy útil
+a. Cursos introductorios o  propedéuticos 
+para los estudiantes de nuevo ingreso
+b. Cursos de regularización durante el 
+ciclo escolar
+c. Tutoría académica grupal
+d. Asesorías académicas individuales 
+extra clase
+e. Adecuación de metas u objetivos 
+institucionales de acuerdo con las necesidades 
+específicas de aprendizaje de los estudiantes
+f. Capacitar a los docentes para apoyar a los 
+estudiantes con bajo aprovechamiento (por 
+ejemplo, curso sobre estrategias de nivelación académica)
+h. Organizar actividades extraescolares (por ejemplo,
+actividades deportivas, recreativas y culturales)
+l. Definir estrategias de atención a problemas
+personales de los estudiantes (por ejemplo, adicciones,
+problemas emocionales)
+n. Analizar el reglamento o acuerdo de convivencia
+escolar</t>
+  </si>
+  <si>
+    <t>Para cada una de las siguientes acciones, indique el nivel de utilidad que han tenido para promover el aprendizaje y la permanencia de tus compañeros estudiantes en la escuela.
+                                                                             Nada útil      -         -          -         Muy útil
+a. Cursos introductorios o  propedéuticos 
+para los estudiantes de nuevo ingreso
+b. Cursos de regularización durante el 
+ciclo escolar
+c. Tutoría académica grupal
+d. Asesorías académicas individuales 
+extra clase
+e. Adecuación de metas u objetivos 
+institucionales de acuerdo con las necesidades 
+específicas de aprendizaje de los estudiantes
+f. Capacitar a los docentes para apoyar a los 
+estudiantes con bajo aprovechamiento (por 
+ejemplo, curso sobre estrategias de nivelación académica)
+h. Organizar actividades extraescolares (por ejemplo,
+actividades deportivas, recreativas y culturales)
+l. Definir estrategias de atención a problemas
+personales de los estudiantes (por ejemplo, adicciones,
+problemas emocionales)
+n. Analizar el reglamento o acuerdo de convivencia
+escolar</t>
+  </si>
+  <si>
+    <t>A partir de un listado de distintos aspectos, identificar aquellos en los que se mantiene un vínculo de trabajo con  actores e instituciones externas a su centro de trabajo</t>
+  </si>
+  <si>
+    <t>En este ciclo escolar, ¿Se ha trabajado conjuntamente con algún actor y/o institución ajeno a su centro escolar en los siguientes ámbitos? Marque Sí o No en cada renglón.
+                                                                                            Sí                                    No                                 
+a. Seguridad
+b. Salud, alimentación e higiene
+c. Protección civil y emergencia
+d. Infraestructura
+e. Mobiliario escolar
+f. Actividades artísticas y culturales
+g. Orientación vocacional
+h. Apoyo para la prevención y atención 
+de adicciones
+i. Apoyo a la mejora educativa</t>
+  </si>
+  <si>
+    <t>¿Cuáles de los siguientes actores e instituciones mantienen un vínculo activo de trabajo con su centro escolar?. Marque Sí o No en cada renglón.
+                                                                                                                  Sí                       No
+a. Servicios de transporte
+b. Centro de maestros
+c. USAER / UDEI
+d. Autoridades estatales y municipales
+e. Organizaciones de Sociedad Civil
+f. Otras instituciones educativas 
+g. Instituciones o empresas privadas
+h. Centros de Salud
+i.  Centros de desarroll cultural</t>
+  </si>
+  <si>
+    <t>De la lista que se le presenta a continuación, identifique si en el último ciclo escolar su centro escolar se enfrentó a alguno de estos retos en la elaboración de la planificación del ciclo escolar. Marque Sí o No en cada renglón.
+                                                                                                                               Sí                          No
+a. Falta de personal docente
+b. El perfil del personal docente 
+que labora en la escuela
+c. Insuficiencia de materiales y 
+condiciones de trabajo
+c. El clima escolar que prevalece 
+en la escuela
+d. La cantidad de recursos escolares 
+(por ejemplo, espacios escolares, 
+equipo audiovisual)
+f. La disposición del personal docente
+g. El proceso de contratación o 
+sustitución del personal docente que 
+labora en la escuela
+h. La cantidad de personal docente 
+en la escuela
+i. El cambio frecuente del personal 
+docente
+j. La cantidad de recursos económicos 
+con los que cuenta la escuela
+k. El nivel de participación de los padres 
+de familia
+l. La relación que existe con las autoridades 
+locales (por ejemplo, comunitarias, municipales)</t>
+  </si>
+  <si>
+    <t>De la lista que se le presenta a continuación, identifique aquellos elementos que hayan fungido como insumos en la elaboración de la planificación del ciclo escolar en el último año.
+a. Diagnóstico escolar
+b. Resultados obtenidos en pruebas nacionales (PLANEA, etc)
+c. Modelo educativo vigente
+d. Planes y Programas de estudio</t>
+  </si>
+  <si>
+    <t>A partir de la importancia que tiene la participación de la comunidad escolar en su centro escolar, identificar la existencia de acciones de promoción</t>
+  </si>
+  <si>
+    <t>Cuando algún docente se ausenta un día o más, ¿las siguientes medidas se implementan en tu escuela?" Marca Sí o No en cada renglón.
+                                                                                                                            Sí                              No 
+a. Algún docente o directivo imparte la clase en su lugar
+b. Algún docente o directivo cuida al grupo, pero sin
+impartir clase
+c. Se suspenden esas clases porque no hay docente
+que las cubra
+d. Se distribuye a los estudiantes en otros grupos
+e. Alguna figura de apoyo educativo (orientador,
+trabajador social, prefecto)  cuida al grupo
+f. Otras figuras cuidan al grupo (por ejemplo, padre
+de familia, administrativo, personal de limpieza o un
+estudiante)"</t>
+  </si>
+  <si>
+    <t>¿En su centro escolar se implementan las siguientes estrategias para atender a los estudiantes cuando algún docente se ausenta un día o más? Marque Sí o No en cada renglón.
+                                                                                                                            Sí                              No 
+a. Algún docente o directivo imparte la clase en su lugar
+b. Algún docente o directivo cuida al grupo, pero sin
+impartir clase
+c. Se suspenden esas clases porque no hay docente
+que las cubra
+d. Se distribuye a los estudiantes en otros grupos
+e. Alguna figura de apoyo educativo (orientador,
+trabajador social, prefecto)  cuida al grupo
+f. Otras figuras cuidan al grupo (por ejemplo, padre
+de familia, administrativo, personal de limpieza o un
+estudiante)"</t>
+  </si>
+  <si>
+    <t>En su centro escolar, ¿se realizan acciones de promoción para que la comunidad escolar (docentes, padres de familia y personal de apoyo o administrativo) participe en las actividades escolares? 
+- Sí
+- No
+Si respondió que No, pase a la pregunta +2</t>
+  </si>
+  <si>
+    <t>A partir de su experiencia en el último ciclo escolar, indicar la frecuencia con que se recibió acompañamiento por parte del director o de algún par</t>
+  </si>
+  <si>
+    <t>A partir de su experiencia en el último ciclo escolar, valorar la utilidad con que se recibió acompañamiento por parte del director o de algún par</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1544,6 +1538,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1828,8 +1825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="E17" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -18281,7 +18278,7 @@
         <v>18</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>19</v>
@@ -18317,7 +18314,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>19</v>
@@ -18353,7 +18350,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>19</v>
@@ -18389,7 +18386,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>19</v>
@@ -18425,7 +18422,7 @@
         <v>31</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>19</v>
@@ -18461,7 +18458,7 @@
         <v>18</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>19</v>
@@ -18497,7 +18494,7 @@
         <v>18</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>19</v>
@@ -18533,7 +18530,7 @@
         <v>40</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>19</v>
@@ -18569,7 +18566,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>19</v>
@@ -18605,7 +18602,7 @@
         <v>46</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>19</v>
@@ -18641,7 +18638,7 @@
         <v>46</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="J12" s="13" t="s">
         <v>19</v>
@@ -18677,7 +18674,7 @@
         <v>53</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="J13" s="13" t="s">
         <v>19</v>
@@ -18713,7 +18710,7 @@
         <v>53</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>19</v>
@@ -18749,7 +18746,7 @@
         <v>56</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>19</v>
@@ -18785,7 +18782,7 @@
         <v>56</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J16" s="13" t="s">
         <v>19</v>
@@ -18814,14 +18811,14 @@
       <c r="F17" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="12" t="s">
-        <v>61</v>
-      </c>
       <c r="I17" s="12" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>19</v>
@@ -18848,16 +18845,16 @@
         <v>58</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>19</v>
@@ -18869,7 +18866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="356.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="318.75" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
         <v>12</v>
@@ -18884,16 +18881,16 @@
         <v>58</v>
       </c>
       <c r="F19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="H19" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="I19" s="12" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>19</v>
@@ -18917,19 +18914,19 @@
         <v>57</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="G20" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>68</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>25</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="J20" s="13" t="s">
         <v>19</v>
@@ -18941,7 +18938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7" t="s">
         <v>12</v>
@@ -18953,19 +18950,19 @@
         <v>57</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F21" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="29" t="s">
         <v>69</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>70</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="J21" s="13" t="s">
         <v>19</v>
@@ -18989,19 +18986,19 @@
         <v>57</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F22" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>72</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>25</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>19</v>
@@ -19025,19 +19022,19 @@
         <v>57</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="G23" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="I23" s="16" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>19</v>
@@ -19061,19 +19058,19 @@
         <v>57</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="G24" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="I24" s="16" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>19</v>
@@ -19091,25 +19088,25 @@
         <v>12</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="G25" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>25</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>19</v>
@@ -19121,31 +19118,31 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="F26" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="G26" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>84</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>25</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>19</v>
@@ -19157,31 +19154,31 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="375" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="356.25" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="G27" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>87</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>25</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="J27" s="13" t="s">
         <v>19</v>
@@ -19196,70 +19193,70 @@
     <row r="28" spans="1:12" ht="225" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="F28" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="G28" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>25</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>19</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="318.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="300" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="E29" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="G29" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="H29" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="I29" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>98</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>19</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>47</v>
@@ -19268,34 +19265,34 @@
     <row r="30" spans="1:12" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="17" t="s">
+      <c r="G30" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="H30" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="I30" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>105</v>
       </c>
       <c r="J30" s="13" t="s">
         <v>19</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>47</v>
@@ -19304,100 +19301,100 @@
     <row r="31" spans="1:12" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" s="17" t="s">
+      <c r="G31" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="H31" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="I31" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>105</v>
       </c>
       <c r="J31" s="13" t="s">
         <v>19</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="337.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="318.75" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="E32" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F32" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="H32" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="I32" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="J32" s="13" t="s">
         <v>19</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="337.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="318.75" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="E33" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H33" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I33" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="J33" s="13" t="s">
         <v>19</v>
@@ -19409,67 +19406,67 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="393.75" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="E34" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F34" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="H34" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="I34" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="J34" s="13" t="s">
         <v>19</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="393.75" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="E35" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F35" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="H35" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>115</v>
-      </c>
       <c r="I35" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J35" s="13" t="s">
         <v>19</v>
@@ -19484,28 +19481,28 @@
     <row r="36" spans="1:12" ht="150" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D36" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="F36" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="G36" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="H36" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>122</v>
-      </c>
       <c r="I36" s="12" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="J36" s="13" t="s">
         <v>19</v>
@@ -19520,64 +19517,64 @@
     <row r="37" spans="1:12" ht="150" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D37" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="F37" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F37" s="17" t="s">
-        <v>120</v>
-      </c>
       <c r="G37" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="J37" s="21" t="s">
         <v>19</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="281.25" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D38" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="F38" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="H38" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="H38" s="11" t="s">
-        <v>127</v>
-      </c>
       <c r="I38" s="22" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="J38" s="13" t="s">
         <v>19</v>
@@ -19589,67 +19586,65 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="281.25" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="F39" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="J39" s="13" t="s">
         <v>19</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="F40" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>136</v>
-      </c>
       <c r="G40" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="I40" s="29" t="s">
-        <v>174</v>
+        <v>190</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="J40" s="13" t="s">
         <v>19</v>
@@ -19661,31 +19656,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="F41" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>136</v>
-      </c>
       <c r="G41" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="I41" s="29" t="s">
-        <v>174</v>
+        <v>190</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="J41" s="13" t="s">
         <v>19</v>
@@ -19700,28 +19693,28 @@
     <row r="42" spans="1:12" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D42" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="I42" s="31" t="s">
         <v>139</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>144</v>
       </c>
       <c r="J42" s="13" t="s">
         <v>19</v>
@@ -19736,28 +19729,28 @@
     <row r="43" spans="1:12" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="I43" s="31" t="s">
         <v>140</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="J43" s="13" t="s">
         <v>19</v>
@@ -19769,37 +19762,35 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="150" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>25</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>150</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="H44" s="12"/>
       <c r="I44" s="12" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="J44" s="13" t="s">
         <v>19</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>21</v>
@@ -19808,106 +19799,106 @@
     <row r="45" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>25</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="J45" s="13" t="s">
         <v>19</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="262.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J46" s="13" t="s">
         <v>19</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="281.25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="262.5" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F47" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="G47" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H47" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F47" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>167</v>
-      </c>
       <c r="I47" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J47" s="13" t="s">
         <v>19</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>21</v>

--- a/2-EvaluacionesArticuladas/Gestión Escolar/Matriz/11_16 - PostReunion MtraMarina/Matriz de Especificaciones (1).xlsx
+++ b/2-EvaluacionesArticuladas/Gestión Escolar/Matriz/11_16 - PostReunion MtraMarina/Matriz de Especificaciones (1).xlsx
@@ -1825,8 +1825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E17" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
